--- a/data/processed/time_simulation_n.xlsx
+++ b/data/processed/time_simulation_n.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0882889999775216</v>
+        <v>0.09787749999668449</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03925150004215539</v>
+        <v>0.05517770000733435</v>
       </c>
       <c r="C2" t="n">
         <v>100</v>
@@ -463,10 +463,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.06126459990628064</v>
+        <v>0.05337669991422445</v>
       </c>
       <c r="B3" t="n">
-        <v>0.003298499970696867</v>
+        <v>0.006058800034224987</v>
       </c>
       <c r="C3" t="n">
         <v>100</v>
@@ -474,10 +474,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.05940200004260987</v>
+        <v>0.05710069998167455</v>
       </c>
       <c r="B4" t="n">
-        <v>0.002993400092236698</v>
+        <v>0.004701399942860007</v>
       </c>
       <c r="C4" t="n">
         <v>100</v>
@@ -485,10 +485,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.06761680007912219</v>
+        <v>0.05235739995259792</v>
       </c>
       <c r="B5" t="n">
-        <v>0.006537200068123639</v>
+        <v>0.00346560007892549</v>
       </c>
       <c r="C5" t="n">
         <v>100</v>
@@ -496,10 +496,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.05994659999851137</v>
+        <v>0.059534200001508</v>
       </c>
       <c r="B6" t="n">
-        <v>0.003716400009579957</v>
+        <v>0.003714499995112419</v>
       </c>
       <c r="C6" t="n">
         <v>100</v>
@@ -507,10 +507,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.05181700002867728</v>
+        <v>0.04983399994671345</v>
       </c>
       <c r="B7" t="n">
-        <v>0.003085300093516707</v>
+        <v>0.004184400080703199</v>
       </c>
       <c r="C7" t="n">
         <v>100</v>
@@ -518,10 +518,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.05484400002751499</v>
+        <v>0.06114630005322397</v>
       </c>
       <c r="B8" t="n">
-        <v>0.003387499949894845</v>
+        <v>0.005032700020819902</v>
       </c>
       <c r="C8" t="n">
         <v>100</v>
@@ -529,10 +529,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.05360730004031211</v>
+        <v>0.06727889995090663</v>
       </c>
       <c r="B9" t="n">
-        <v>0.003034599940292537</v>
+        <v>0.004710200009867549</v>
       </c>
       <c r="C9" t="n">
         <v>100</v>
@@ -540,10 +540,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.05657290003728122</v>
+        <v>0.05611200002022088</v>
       </c>
       <c r="B10" t="n">
-        <v>0.003452000091783702</v>
+        <v>0.003869500011205673</v>
       </c>
       <c r="C10" t="n">
         <v>100</v>
@@ -551,10 +551,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.05419460008852184</v>
+        <v>0.05107559997122735</v>
       </c>
       <c r="B11" t="n">
-        <v>0.003142300061881542</v>
+        <v>0.003662499948404729</v>
       </c>
       <c r="C11" t="n">
         <v>100</v>
@@ -562,331 +562,4291 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.06738170003518462</v>
+        <v>0.06697159993927926</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1868839000817388</v>
+        <v>0.00542559998575598</v>
       </c>
       <c r="C12" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.07163249992299825</v>
+        <v>0.08650049997959286</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1840923000127077</v>
+        <v>0.005945199984125793</v>
       </c>
       <c r="C13" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.08704069990199059</v>
+        <v>0.05679500009864569</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1959777000593022</v>
+        <v>0.00346560007892549</v>
       </c>
       <c r="C14" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.1015282000880688</v>
+        <v>0.05154750007204711</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1961576000321656</v>
+        <v>0.00407010002527386</v>
       </c>
       <c r="C15" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.07295570010319352</v>
+        <v>0.058894700021483</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2279196000890806</v>
+        <v>0.003784699947573245</v>
       </c>
       <c r="C16" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.08112959994468838</v>
+        <v>0.04602879995945841</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1857767000328749</v>
+        <v>0.005283800070174038</v>
       </c>
       <c r="C17" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.07220789999701083</v>
+        <v>0.04413539997767657</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1770027000457048</v>
+        <v>0.00400780001655221</v>
       </c>
       <c r="C18" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.07409600005485117</v>
+        <v>0.05808960006106645</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1692270999774337</v>
+        <v>0.004302499932236969</v>
       </c>
       <c r="C19" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.07186270004604012</v>
+        <v>0.05395920004229993</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1764545999467373</v>
+        <v>0.003647700068540871</v>
       </c>
       <c r="C20" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.0724769999505952</v>
+        <v>0.05033949995413423</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1760204000165686</v>
+        <v>0.003558599972166121</v>
       </c>
       <c r="C21" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.1142537000123411</v>
+        <v>0.05521020002197474</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7083017999539152</v>
+        <v>0.004235200001858175</v>
       </c>
       <c r="C22" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.1182292000157759</v>
+        <v>0.05023509997408837</v>
       </c>
       <c r="B23" t="n">
-        <v>0.7083541000029072</v>
+        <v>0.004000599961727858</v>
       </c>
       <c r="C23" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.1161393000511453</v>
+        <v>0.05513279989827424</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6801523000467569</v>
+        <v>0.003763600019738078</v>
       </c>
       <c r="C24" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.1124661000212654</v>
+        <v>0.04604420007672161</v>
       </c>
       <c r="B25" t="n">
-        <v>0.7654604000272229</v>
+        <v>0.003834900096990168</v>
       </c>
       <c r="C25" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.1127275000326335</v>
+        <v>0.04666169988922775</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6917164999758825</v>
+        <v>0.003745099995285273</v>
       </c>
       <c r="C26" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.1230336000444368</v>
+        <v>0.04604960000142455</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8212764000054449</v>
+        <v>0.003311399952508509</v>
       </c>
       <c r="C27" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.1094246000284329</v>
+        <v>0.04679870000109076</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7256051000440493</v>
+        <v>0.004259700071997941</v>
       </c>
       <c r="C28" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.1058479000348598</v>
+        <v>0.04439170006662607</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6859540999867022</v>
+        <v>0.005177699960768223</v>
       </c>
       <c r="C29" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.1126060000387952</v>
+        <v>0.04772900009993464</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6978093999205157</v>
+        <v>0.003853300004266202</v>
       </c>
       <c r="C30" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.1363576999865472</v>
+        <v>0.04560199996922165</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7082933000056073</v>
+        <v>0.003341199946589768</v>
       </c>
       <c r="C31" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4.211875200038776</v>
+        <v>0.04815410007722676</v>
       </c>
       <c r="B32" t="n">
-        <v>279.1489057000726</v>
+        <v>0.004439499927684665</v>
       </c>
       <c r="C32" t="n">
-        <v>10000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6.061426499974914</v>
+        <v>0.04491169995162636</v>
       </c>
       <c r="B33" t="n">
-        <v>297.8320500999689</v>
+        <v>0.003399800043553114</v>
       </c>
       <c r="C33" t="n">
-        <v>10000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4.669390999944881</v>
+        <v>0.0463657999644056</v>
       </c>
       <c r="B34" t="n">
-        <v>313.6748951999471</v>
+        <v>0.003569599939510226</v>
       </c>
       <c r="C34" t="n">
-        <v>10000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4.928045199951157</v>
+        <v>0.04755120002664626</v>
       </c>
       <c r="B35" t="n">
-        <v>311.3739776000148</v>
+        <v>0.003670400008559227</v>
       </c>
       <c r="C35" t="n">
-        <v>10000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4.311255299951881</v>
+        <v>0.04812930000480264</v>
       </c>
       <c r="B36" t="n">
-        <v>314.647222999949</v>
+        <v>0.005771799944341183</v>
       </c>
       <c r="C36" t="n">
-        <v>10000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5.293866800027899</v>
+        <v>0.04580349999014288</v>
       </c>
       <c r="B37" t="n">
-        <v>294.0841742999619</v>
+        <v>0.00375150004401803</v>
       </c>
       <c r="C37" t="n">
-        <v>10000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4.592602099990472</v>
+        <v>0.0457504999358207</v>
       </c>
       <c r="B38" t="n">
-        <v>309.0433933000313</v>
+        <v>0.003231600043363869</v>
       </c>
       <c r="C38" t="n">
-        <v>10000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4.75006809993647</v>
+        <v>0.0464076999342069</v>
       </c>
       <c r="B39" t="n">
-        <v>308.4367955999915</v>
+        <v>0.003631300060078502</v>
       </c>
       <c r="C39" t="n">
-        <v>10000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5.890870500006713</v>
+        <v>0.05378289998043329</v>
       </c>
       <c r="B40" t="n">
-        <v>307.301102599944</v>
+        <v>0.004232499981299043</v>
       </c>
       <c r="C40" t="n">
-        <v>10000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6.18442619999405</v>
+        <v>0.04757990001235157</v>
       </c>
       <c r="B41" t="n">
-        <v>310.18857629993</v>
+        <v>0.003889199928380549</v>
       </c>
       <c r="C41" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.0459023000439629</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.003438399988226593</v>
+      </c>
+      <c r="C42" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.04994659998919815</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.00396040000487119</v>
+      </c>
+      <c r="C43" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.05819640005938709</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.005418999935500324</v>
+      </c>
+      <c r="C44" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.05399829999078065</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.003463600063696504</v>
+      </c>
+      <c r="C45" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.05039560003206134</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.003967099939472973</v>
+      </c>
+      <c r="C46" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.04817720002029091</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.003740199957974255</v>
+      </c>
+      <c r="C47" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.05357999994885176</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.004057800048030913</v>
+      </c>
+      <c r="C48" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.04806499998085201</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.003267899970524013</v>
+      </c>
+      <c r="C49" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.0475096000591293</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.004592899931594729</v>
+      </c>
+      <c r="C50" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.05555099993944168</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.003531399997882545</v>
+      </c>
+      <c r="C51" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.08275599998887628</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.005752900033257902</v>
+      </c>
+      <c r="C52" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.0840458000311628</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.005801399936899543</v>
+      </c>
+      <c r="C53" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.05498649994842708</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.003490900038741529</v>
+      </c>
+      <c r="C54" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.05065979994833469</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.003543199971318245</v>
+      </c>
+      <c r="C55" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.06764400005340576</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.003971599973738194</v>
+      </c>
+      <c r="C56" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.07599769998341799</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.009765499969944358</v>
+      </c>
+      <c r="C57" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.1070542999077588</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.003916800022125244</v>
+      </c>
+      <c r="C58" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.05359180003870279</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.003001799923367798</v>
+      </c>
+      <c r="C59" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.058818299905397</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.003374499967321754</v>
+      </c>
+      <c r="C60" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.05015579995233566</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.003478500060737133</v>
+      </c>
+      <c r="C61" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.04919309995602816</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.00347440002951771</v>
+      </c>
+      <c r="C62" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.04492899996694177</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.003155799931846559</v>
+      </c>
+      <c r="C63" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.0567621000809595</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.003136400016956031</v>
+      </c>
+      <c r="C64" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.04986749996896833</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.002894900040701032</v>
+      </c>
+      <c r="C65" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.04816260002553463</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.004197799949906766</v>
+      </c>
+      <c r="C66" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.05305960006080568</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.004193799919448793</v>
+      </c>
+      <c r="C67" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0.04202779999468476</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.00344630004838109</v>
+      </c>
+      <c r="C68" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.04868789995089173</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.003380400012247264</v>
+      </c>
+      <c r="C69" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.04954150004778057</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.003488799906335771</v>
+      </c>
+      <c r="C70" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.04943340003956109</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.003492699936032295</v>
+      </c>
+      <c r="C71" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0.04880869993939996</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.04984460002742708</v>
+      </c>
+      <c r="C72" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.04331460001412779</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.003241500002332032</v>
+      </c>
+      <c r="C73" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.05085740005597472</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.002798799891024828</v>
+      </c>
+      <c r="C74" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.03757669997867197</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.003033500048331916</v>
+      </c>
+      <c r="C75" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.03907649999018759</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.002888699993491173</v>
+      </c>
+      <c r="C76" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0.05307809996884316</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.002654300071299076</v>
+      </c>
+      <c r="C77" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.04233859991654754</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.003162899985909462</v>
+      </c>
+      <c r="C78" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.03982549998909235</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.004028899944387376</v>
+      </c>
+      <c r="C79" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.06224879994988441</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.004100200021639466</v>
+      </c>
+      <c r="C80" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.05229909997433424</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.004133599926717579</v>
+      </c>
+      <c r="C81" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.05783160007558763</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.003536200034432113</v>
+      </c>
+      <c r="C82" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0.04987450002226979</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.003788899979554117</v>
+      </c>
+      <c r="C83" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.05057269998360425</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.004121899954043329</v>
+      </c>
+      <c r="C84" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.05809449998196214</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.004071800038218498</v>
+      </c>
+      <c r="C85" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.05787689995486289</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.003773499978706241</v>
+      </c>
+      <c r="C86" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.04598010005429387</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.004137599957175553</v>
+      </c>
+      <c r="C87" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.05256390001159161</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.004320700070820749</v>
+      </c>
+      <c r="C88" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.04596220003440976</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.003383299917913973</v>
+      </c>
+      <c r="C89" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.05050739995203912</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.004177000024355948</v>
+      </c>
+      <c r="C90" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.04838190006557852</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.004278099979273975</v>
+      </c>
+      <c r="C91" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.05202770000323653</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.004438300034962595</v>
+      </c>
+      <c r="C92" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.05692739994265139</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.004996399977244437</v>
+      </c>
+      <c r="C93" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.05951310007367283</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.00363999989349395</v>
+      </c>
+      <c r="C94" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.04670040006749332</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.004720300086773932</v>
+      </c>
+      <c r="C95" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.04797549999784678</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.00328770000487566</v>
+      </c>
+      <c r="C96" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.04750560002867132</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.003263500053435564</v>
+      </c>
+      <c r="C97" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0.0493082000175491</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.003113999962806702</v>
+      </c>
+      <c r="C98" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0.04614470002707094</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.003183599910698831</v>
+      </c>
+      <c r="C99" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0.04576409992296249</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.004013100056909025</v>
+      </c>
+      <c r="C100" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0.04529489995911717</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.003168300027027726</v>
+      </c>
+      <c r="C101" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.07299479993525892</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.1676177000626922</v>
+      </c>
+      <c r="C102" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.07665029994677752</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.1799380999291316</v>
+      </c>
+      <c r="C103" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.0831391999963671</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.17262159998063</v>
+      </c>
+      <c r="C104" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.07774929993320256</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.1660320999799296</v>
+      </c>
+      <c r="C105" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.09394970000721514</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.1708096999209374</v>
+      </c>
+      <c r="C106" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.07700749998912215</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.169961899984628</v>
+      </c>
+      <c r="C107" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.08636800001841038</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.1642732999753207</v>
+      </c>
+      <c r="C108" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.08213820005767047</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.1647900999523699</v>
+      </c>
+      <c r="C109" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.07853029994294047</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.1743461999576539</v>
+      </c>
+      <c r="C110" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.07802220003213733</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.1678254000144079</v>
+      </c>
+      <c r="C111" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.08366930007468909</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.1651027000043541</v>
+      </c>
+      <c r="C112" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.07644019997678697</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.1648342999396846</v>
+      </c>
+      <c r="C113" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.0785104000242427</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.1641356999753043</v>
+      </c>
+      <c r="C114" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.07659009995404631</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.1661260999972001</v>
+      </c>
+      <c r="C115" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.08755070006009191</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.1603192000184208</v>
+      </c>
+      <c r="C116" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.08641840005293489</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.177453700103797</v>
+      </c>
+      <c r="C117" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.07902630011085421</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.1619810999836773</v>
+      </c>
+      <c r="C118" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.0859330000821501</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.1665990999899805</v>
+      </c>
+      <c r="C119" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.07573199993930757</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.1704325000755489</v>
+      </c>
+      <c r="C120" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.07603960006963462</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.1685007999185473</v>
+      </c>
+      <c r="C121" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.07709289994090796</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.1783684999682009</v>
+      </c>
+      <c r="C122" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.07804189994931221</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.1666979999281466</v>
+      </c>
+      <c r="C123" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.08686549996491522</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.1689111000159755</v>
+      </c>
+      <c r="C124" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.07439490000251681</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.1642559000756592</v>
+      </c>
+      <c r="C125" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.07278970000334084</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.1608529000077397</v>
+      </c>
+      <c r="C126" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.07920800009742379</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.1630849000066519</v>
+      </c>
+      <c r="C127" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.08093259995803237</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.1636450999649242</v>
+      </c>
+      <c r="C128" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.0727692999644205</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.1671428999397904</v>
+      </c>
+      <c r="C129" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.07644009997602552</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.1590235000476241</v>
+      </c>
+      <c r="C130" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.0802150999661535</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.1638498000102118</v>
+      </c>
+      <c r="C131" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.08499740005936474</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.1663854999933392</v>
+      </c>
+      <c r="C132" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.08233640005346388</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.1712997999275103</v>
+      </c>
+      <c r="C133" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.07591220003087074</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.1622853999724612</v>
+      </c>
+      <c r="C134" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.09137380006723106</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.2079877998912707</v>
+      </c>
+      <c r="C135" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.07764969998970628</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.182733100024052</v>
+      </c>
+      <c r="C136" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.08986720000393689</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.1928211000049487</v>
+      </c>
+      <c r="C137" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.08550020004622638</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.1979016999248415</v>
+      </c>
+      <c r="C138" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.07675580005161464</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.1697900000726804</v>
+      </c>
+      <c r="C139" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.08864580001682043</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.1799184000119567</v>
+      </c>
+      <c r="C140" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.07039390003774315</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.1653976999223232</v>
+      </c>
+      <c r="C141" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.08542130002751946</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.1701458999887109</v>
+      </c>
+      <c r="C142" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.0716329999268055</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.1603616999927908</v>
+      </c>
+      <c r="C143" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.08790909999515861</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.1848956000758335</v>
+      </c>
+      <c r="C144" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.07495340006425977</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.1850521999876946</v>
+      </c>
+      <c r="C145" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.08121470001060516</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.1713882000185549</v>
+      </c>
+      <c r="C146" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.07593160006217659</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.1759680000832304</v>
+      </c>
+      <c r="C147" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.07720330008305609</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.1650060000829399</v>
+      </c>
+      <c r="C148" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.0766465999186039</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.1661364999599755</v>
+      </c>
+      <c r="C149" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.08553750009741634</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.180292300065048</v>
+      </c>
+      <c r="C150" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.08173129998613149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.1666715000756085</v>
+      </c>
+      <c r="C151" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.08212759997695684</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.167459899908863</v>
+      </c>
+      <c r="C152" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.07712090003769845</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.1898046999704093</v>
+      </c>
+      <c r="C153" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.1309482000069693</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.184428200009279</v>
+      </c>
+      <c r="C154" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.0721263000741601</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.1645366000011563</v>
+      </c>
+      <c r="C155" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.08197439997456968</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.1672833999618888</v>
+      </c>
+      <c r="C156" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.07907710003200918</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.1662131999619305</v>
+      </c>
+      <c r="C157" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.08687130000907928</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.1710716999368742</v>
+      </c>
+      <c r="C158" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.08385970001108944</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.1637682999717072</v>
+      </c>
+      <c r="C159" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.07412539992947131</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.1650787000544369</v>
+      </c>
+      <c r="C160" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.08439720002934337</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.1692419999744743</v>
+      </c>
+      <c r="C161" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.07122729998081923</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.1705916000064462</v>
+      </c>
+      <c r="C162" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.07732680009212345</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.1801644000224769</v>
+      </c>
+      <c r="C163" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.09235080005601048</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.1993131999624893</v>
+      </c>
+      <c r="C164" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.08386350004002452</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.168668600032106</v>
+      </c>
+      <c r="C165" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.08589729992672801</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.1853142000036314</v>
+      </c>
+      <c r="C166" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.07618660002481192</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.1728572999127209</v>
+      </c>
+      <c r="C167" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.07598679990042001</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.1622666000621393</v>
+      </c>
+      <c r="C168" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.07393290009349585</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.1686967000132427</v>
+      </c>
+      <c r="C169" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.07158900005742908</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.1667250999016687</v>
+      </c>
+      <c r="C170" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.08624660002533346</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.2117588999681175</v>
+      </c>
+      <c r="C171" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.08636089996434748</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.1756392999086529</v>
+      </c>
+      <c r="C172" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.07724749995395541</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.1603062000358477</v>
+      </c>
+      <c r="C173" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.08543269999790937</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.1585921000223607</v>
+      </c>
+      <c r="C174" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.08355090010445565</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.1676634000614285</v>
+      </c>
+      <c r="C175" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.07139270007610321</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.1691415999084711</v>
+      </c>
+      <c r="C176" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.07701020000968128</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.1756595999468118</v>
+      </c>
+      <c r="C177" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.08462370000779629</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.1632504999870434</v>
+      </c>
+      <c r="C178" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.07401149999350309</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.1629663000348955</v>
+      </c>
+      <c r="C179" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.08101819991134107</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.1651506000198424</v>
+      </c>
+      <c r="C180" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.07696480001322925</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.1748525999719277</v>
+      </c>
+      <c r="C181" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.08216679992619902</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.1814556000754237</v>
+      </c>
+      <c r="C182" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.08164140000008047</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.1626496999524534</v>
+      </c>
+      <c r="C183" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.1001047999598086</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.1740476000122726</v>
+      </c>
+      <c r="C184" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.06564029993023723</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.1636878000572324</v>
+      </c>
+      <c r="C185" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.07708419999107718</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.165776600013487</v>
+      </c>
+      <c r="C186" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.07796919997781515</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.1679183000233024</v>
+      </c>
+      <c r="C187" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.08142429997678846</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.1625578999519348</v>
+      </c>
+      <c r="C188" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.07907700003124774</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.1628933999454603</v>
+      </c>
+      <c r="C189" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.08680479996837676</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.1633634000318125</v>
+      </c>
+      <c r="C190" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.0748941000783816</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.1646898000035435</v>
+      </c>
+      <c r="C191" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.07333949999883771</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.1705897999927402</v>
+      </c>
+      <c r="C192" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.07681020000018179</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.1706829000031576</v>
+      </c>
+      <c r="C193" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.08837640006095171</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.1736379999201745</v>
+      </c>
+      <c r="C194" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.07973029999993742</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.1725484000053257</v>
+      </c>
+      <c r="C195" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.08894589997362345</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.1669276999309659</v>
+      </c>
+      <c r="C196" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.08209570008330047</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.1597192001063377</v>
+      </c>
+      <c r="C197" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.08004639996215701</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.1674674999667332</v>
+      </c>
+      <c r="C198" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.08289309998508543</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.1672657000599429</v>
+      </c>
+      <c r="C199" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.0780589000787586</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.1642408000770956</v>
+      </c>
+      <c r="C200" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.06886410003062338</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.1683115999912843</v>
+      </c>
+      <c r="C201" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>0.1369057999690995</v>
+      </c>
+      <c r="B202" t="n">
+        <v>0.8497186000458896</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>0.1338897999376059</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0.9011953000444919</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>0.1398959999205545</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0.8765563999768347</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>0.1302806000458077</v>
+      </c>
+      <c r="B205" t="n">
+        <v>0.8979697999311611</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>0.1618390999501571</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0.8944649000186473</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>0.1388120000483468</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0.8489055999089032</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>0.1270335000008345</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0.9042669999180362</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>0.1333276000805199</v>
+      </c>
+      <c r="B209" t="n">
+        <v>0.7804128000279889</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>0.1293694999767467</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0.766859499970451</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>0.1673943001078442</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0.8624329000012949</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>0.129763999953866</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0.8186310000019148</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>0.1348042999161407</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0.8599273000145331</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>0.1274830000475049</v>
+      </c>
+      <c r="B214" t="n">
+        <v>0.9749241999816149</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>0.1250944000203162</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0.9077949000056833</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>0.1377322000917047</v>
+      </c>
+      <c r="B216" t="n">
+        <v>0.9530703000491485</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>0.1319931000471115</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0.774121499969624</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>0.1328906000126153</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0.7405766000738367</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>0.1324708999600261</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0.868915900005959</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>0.1329410000471398</v>
+      </c>
+      <c r="B220" t="n">
+        <v>0.8218200999544933</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>0.1371365000959486</v>
+      </c>
+      <c r="B221" t="n">
+        <v>0.8392659000819549</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>0.1278268999885768</v>
+      </c>
+      <c r="B222" t="n">
+        <v>0.8573123998939991</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>0.1350445999996737</v>
+      </c>
+      <c r="B223" t="n">
+        <v>0.8474967000074685</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>0.129170999978669</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0.8712834999896586</v>
+      </c>
+      <c r="C224" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>0.1350018999073654</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0.7845021999673918</v>
+      </c>
+      <c r="C225" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>0.1366911999648437</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0.8368623000569642</v>
+      </c>
+      <c r="C226" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>0.1235340000130236</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0.8805686999112368</v>
+      </c>
+      <c r="C227" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>0.1291558999801055</v>
+      </c>
+      <c r="B228" t="n">
+        <v>0.8600113000720739</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>0.1367162999231368</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0.7804522999795154</v>
+      </c>
+      <c r="C229" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>0.1370204000268131</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0.7694800000172108</v>
+      </c>
+      <c r="C230" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>0.1365183000452816</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0.7976713000098243</v>
+      </c>
+      <c r="C231" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>0.1495209999848157</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0.8588357999688014</v>
+      </c>
+      <c r="C232" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>0.1320353000191972</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0.8194337000604719</v>
+      </c>
+      <c r="C233" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>0.1242420000489801</v>
+      </c>
+      <c r="B234" t="n">
+        <v>0.9162903000833467</v>
+      </c>
+      <c r="C234" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>0.1361669000471011</v>
+      </c>
+      <c r="B235" t="n">
+        <v>0.7852178999455646</v>
+      </c>
+      <c r="C235" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>0.1404110000003129</v>
+      </c>
+      <c r="B236" t="n">
+        <v>0.8752384000690654</v>
+      </c>
+      <c r="C236" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>0.1336779999546707</v>
+      </c>
+      <c r="B237" t="n">
+        <v>0.8510776999173686</v>
+      </c>
+      <c r="C237" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>0.1261506000300869</v>
+      </c>
+      <c r="B238" t="n">
+        <v>0.8908515999792144</v>
+      </c>
+      <c r="C238" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>0.1349969999864697</v>
+      </c>
+      <c r="B239" t="n">
+        <v>0.9580007999902591</v>
+      </c>
+      <c r="C239" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>0.1294929999858141</v>
+      </c>
+      <c r="B240" t="n">
+        <v>0.8697887000162154</v>
+      </c>
+      <c r="C240" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>0.1318514000158757</v>
+      </c>
+      <c r="B241" t="n">
+        <v>0.8667252999730408</v>
+      </c>
+      <c r="C241" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>0.1322492000181228</v>
+      </c>
+      <c r="B242" t="n">
+        <v>0.9404524998972192</v>
+      </c>
+      <c r="C242" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>0.1399968001060188</v>
+      </c>
+      <c r="B243" t="n">
+        <v>0.8579957000911236</v>
+      </c>
+      <c r="C243" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>0.1292697000317276</v>
+      </c>
+      <c r="B244" t="n">
+        <v>0.8063377999933437</v>
+      </c>
+      <c r="C244" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>0.1297822999767959</v>
+      </c>
+      <c r="B245" t="n">
+        <v>0.8460216000676155</v>
+      </c>
+      <c r="C245" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>0.1350555999670178</v>
+      </c>
+      <c r="B246" t="n">
+        <v>0.8351628999225795</v>
+      </c>
+      <c r="C246" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>0.1366022999864072</v>
+      </c>
+      <c r="B247" t="n">
+        <v>0.8899277000455186</v>
+      </c>
+      <c r="C247" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>0.1392500000074506</v>
+      </c>
+      <c r="B248" t="n">
+        <v>0.7823029999854043</v>
+      </c>
+      <c r="C248" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>0.1373767000623047</v>
+      </c>
+      <c r="B249" t="n">
+        <v>0.8541406999574974</v>
+      </c>
+      <c r="C249" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>0.1358568000141531</v>
+      </c>
+      <c r="B250" t="n">
+        <v>0.8594474999699742</v>
+      </c>
+      <c r="C250" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>0.1424982000607997</v>
+      </c>
+      <c r="B251" t="n">
+        <v>0.8774408000754192</v>
+      </c>
+      <c r="C251" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>0.127752700005658</v>
+      </c>
+      <c r="B252" t="n">
+        <v>0.8080022999783978</v>
+      </c>
+      <c r="C252" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>0.1306417000014335</v>
+      </c>
+      <c r="B253" t="n">
+        <v>0.8137857000110671</v>
+      </c>
+      <c r="C253" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>0.1273148000473157</v>
+      </c>
+      <c r="B254" t="n">
+        <v>0.8220249000005424</v>
+      </c>
+      <c r="C254" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>0.1460870000300929</v>
+      </c>
+      <c r="B255" t="n">
+        <v>0.8391496000112966</v>
+      </c>
+      <c r="C255" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>0.1328280998859555</v>
+      </c>
+      <c r="B256" t="n">
+        <v>0.810772700002417</v>
+      </c>
+      <c r="C256" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>0.1341158000286669</v>
+      </c>
+      <c r="B257" t="n">
+        <v>0.9027441000798717</v>
+      </c>
+      <c r="C257" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>0.1340797001030296</v>
+      </c>
+      <c r="B258" t="n">
+        <v>0.8585854000411928</v>
+      </c>
+      <c r="C258" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>0.1391218999633566</v>
+      </c>
+      <c r="B259" t="n">
+        <v>0.8556268999818712</v>
+      </c>
+      <c r="C259" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>0.142325299908407</v>
+      </c>
+      <c r="B260" t="n">
+        <v>0.9520842999918386</v>
+      </c>
+      <c r="C260" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>0.1246187000069767</v>
+      </c>
+      <c r="B261" t="n">
+        <v>0.8833870999515057</v>
+      </c>
+      <c r="C261" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>0.1329306000843644</v>
+      </c>
+      <c r="B262" t="n">
+        <v>0.9206675000023097</v>
+      </c>
+      <c r="C262" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>0.1318184999981895</v>
+      </c>
+      <c r="B263" t="n">
+        <v>0.8849441000493243</v>
+      </c>
+      <c r="C263" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>0.1321650999598205</v>
+      </c>
+      <c r="B264" t="n">
+        <v>0.8419784000143409</v>
+      </c>
+      <c r="C264" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>0.1348220000509173</v>
+      </c>
+      <c r="B265" t="n">
+        <v>0.8827716000378132</v>
+      </c>
+      <c r="C265" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>0.1368273000698537</v>
+      </c>
+      <c r="B266" t="n">
+        <v>0.8066985999466851</v>
+      </c>
+      <c r="C266" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>0.1276785999070853</v>
+      </c>
+      <c r="B267" t="n">
+        <v>0.7716236000414938</v>
+      </c>
+      <c r="C267" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>0.1373572000302374</v>
+      </c>
+      <c r="B268" t="n">
+        <v>0.7829812000272796</v>
+      </c>
+      <c r="C268" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>0.1327327999752015</v>
+      </c>
+      <c r="B269" t="n">
+        <v>0.8333074999973178</v>
+      </c>
+      <c r="C269" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>0.1327465999638662</v>
+      </c>
+      <c r="B270" t="n">
+        <v>0.8321197000332177</v>
+      </c>
+      <c r="C270" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>0.1305724000558257</v>
+      </c>
+      <c r="B271" t="n">
+        <v>0.8983725999714807</v>
+      </c>
+      <c r="C271" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>0.1214919000631198</v>
+      </c>
+      <c r="B272" t="n">
+        <v>0.8610797999426723</v>
+      </c>
+      <c r="C272" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>0.1323137000435963</v>
+      </c>
+      <c r="B273" t="n">
+        <v>0.8380315999966115</v>
+      </c>
+      <c r="C273" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>0.1415006000315771</v>
+      </c>
+      <c r="B274" t="n">
+        <v>0.8464684999780729</v>
+      </c>
+      <c r="C274" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>0.1304212000686675</v>
+      </c>
+      <c r="B275" t="n">
+        <v>0.7989436000352725</v>
+      </c>
+      <c r="C275" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>0.1372952999081463</v>
+      </c>
+      <c r="B276" t="n">
+        <v>0.8903697000350803</v>
+      </c>
+      <c r="C276" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>0.1334978000959381</v>
+      </c>
+      <c r="B277" t="n">
+        <v>0.8767439000075683</v>
+      </c>
+      <c r="C277" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>0.1350638000294566</v>
+      </c>
+      <c r="B278" t="n">
+        <v>0.7917593000456691</v>
+      </c>
+      <c r="C278" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>0.1336250000167638</v>
+      </c>
+      <c r="B279" t="n">
+        <v>0.8619465000228956</v>
+      </c>
+      <c r="C279" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>0.1362287999363616</v>
+      </c>
+      <c r="B280" t="n">
+        <v>0.8890924999723211</v>
+      </c>
+      <c r="C280" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>0.1273623000597581</v>
+      </c>
+      <c r="B281" t="n">
+        <v>0.8295339000178501</v>
+      </c>
+      <c r="C281" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>0.1390510000055656</v>
+      </c>
+      <c r="B282" t="n">
+        <v>0.8060289999702945</v>
+      </c>
+      <c r="C282" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>0.1433963000308722</v>
+      </c>
+      <c r="B283" t="n">
+        <v>0.8337044999934733</v>
+      </c>
+      <c r="C283" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>0.1425147999543697</v>
+      </c>
+      <c r="B284" t="n">
+        <v>0.8370392000069842</v>
+      </c>
+      <c r="C284" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>0.1357393999351189</v>
+      </c>
+      <c r="B285" t="n">
+        <v>0.8093973000068218</v>
+      </c>
+      <c r="C285" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>0.1320532000390813</v>
+      </c>
+      <c r="B286" t="n">
+        <v>0.8580461000092328</v>
+      </c>
+      <c r="C286" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>0.1348089999519289</v>
+      </c>
+      <c r="B287" t="n">
+        <v>0.8968352000229061</v>
+      </c>
+      <c r="C287" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>0.1319886000128463</v>
+      </c>
+      <c r="B288" t="n">
+        <v>0.8013848999980837</v>
+      </c>
+      <c r="C288" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>0.1306435000151396</v>
+      </c>
+      <c r="B289" t="n">
+        <v>0.7909288998926058</v>
+      </c>
+      <c r="C289" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>0.1331485999980941</v>
+      </c>
+      <c r="B290" t="n">
+        <v>0.7854441999224946</v>
+      </c>
+      <c r="C290" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>0.140411900007166</v>
+      </c>
+      <c r="B291" t="n">
+        <v>0.9107963000424206</v>
+      </c>
+      <c r="C291" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>0.1365742000052705</v>
+      </c>
+      <c r="B292" t="n">
+        <v>0.8477417000103742</v>
+      </c>
+      <c r="C292" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>0.1412912999512628</v>
+      </c>
+      <c r="B293" t="n">
+        <v>0.8847762000514194</v>
+      </c>
+      <c r="C293" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>0.1345100000035018</v>
+      </c>
+      <c r="B294" t="n">
+        <v>0.8256526000332087</v>
+      </c>
+      <c r="C294" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>0.1354900000151247</v>
+      </c>
+      <c r="B295" t="n">
+        <v>0.8404985999222845</v>
+      </c>
+      <c r="C295" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>0.1383178000105545</v>
+      </c>
+      <c r="B296" t="n">
+        <v>0.9266678999410942</v>
+      </c>
+      <c r="C296" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>0.1277886999305338</v>
+      </c>
+      <c r="B297" t="n">
+        <v>0.8056474999757484</v>
+      </c>
+      <c r="C297" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>0.1314625999657437</v>
+      </c>
+      <c r="B298" t="n">
+        <v>0.8031336999265477</v>
+      </c>
+      <c r="C298" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>0.1357167999958619</v>
+      </c>
+      <c r="B299" t="n">
+        <v>0.7634780999505892</v>
+      </c>
+      <c r="C299" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>0.1305547000374645</v>
+      </c>
+      <c r="B300" t="n">
+        <v>0.8457260999130085</v>
+      </c>
+      <c r="C300" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>0.1354272000025958</v>
+      </c>
+      <c r="B301" t="n">
+        <v>0.850707900011912</v>
+      </c>
+      <c r="C301" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>5.177704100031406</v>
+      </c>
+      <c r="B302" t="n">
+        <v>393.7032347000204</v>
+      </c>
+      <c r="C302" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>7.543729500030167</v>
+      </c>
+      <c r="B303" t="n">
+        <v>407.0392249000724</v>
+      </c>
+      <c r="C303" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>7.413230299949646</v>
+      </c>
+      <c r="B304" t="n">
+        <v>408.5822276999243</v>
+      </c>
+      <c r="C304" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>7.400003200047649</v>
+      </c>
+      <c r="B305" t="n">
+        <v>404.2328946000198</v>
+      </c>
+      <c r="C305" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>7.406680900021456</v>
+      </c>
+      <c r="B306" t="n">
+        <v>413.9449019000167</v>
+      </c>
+      <c r="C306" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>7.504378499928862</v>
+      </c>
+      <c r="B307" t="n">
+        <v>400.9707360999892</v>
+      </c>
+      <c r="C307" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>7.391642000060529</v>
+      </c>
+      <c r="B308" t="n">
+        <v>403.5234279000433</v>
+      </c>
+      <c r="C308" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>7.491412600036711</v>
+      </c>
+      <c r="B309" t="n">
+        <v>408.0277426000684</v>
+      </c>
+      <c r="C309" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>7.458620600053109</v>
+      </c>
+      <c r="B310" t="n">
+        <v>405.9449036000296</v>
+      </c>
+      <c r="C310" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>7.402179199969396</v>
+      </c>
+      <c r="B311" t="n">
+        <v>406.6508785999613</v>
+      </c>
+      <c r="C311" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>7.541438000043854</v>
+      </c>
+      <c r="B312" t="n">
+        <v>408.782682399964</v>
+      </c>
+      <c r="C312" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>7.41053989995271</v>
+      </c>
+      <c r="B313" t="n">
+        <v>404.1932683000341</v>
+      </c>
+      <c r="C313" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>7.545570499962196</v>
+      </c>
+      <c r="B314" t="n">
+        <v>529.6304050999461</v>
+      </c>
+      <c r="C314" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>11.16997480008285</v>
+      </c>
+      <c r="B315" t="n">
+        <v>538.7486263000173</v>
+      </c>
+      <c r="C315" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>11.31111360003706</v>
+      </c>
+      <c r="B316" t="n">
+        <v>514.7073527000612</v>
+      </c>
+      <c r="C316" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>11.24149009992834</v>
+      </c>
+      <c r="B317" t="n">
+        <v>520.8167507000035</v>
+      </c>
+      <c r="C317" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>11.08898490003776</v>
+      </c>
+      <c r="B318" t="n">
+        <v>2222.36755580001</v>
+      </c>
+      <c r="C318" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>4.941295000026003</v>
+      </c>
+      <c r="B319" t="n">
+        <v>294.5628984000068</v>
+      </c>
+      <c r="C319" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>5.068643200094812</v>
+      </c>
+      <c r="B320" t="n">
+        <v>316.6634865999222</v>
+      </c>
+      <c r="C320" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>5.177096599945799</v>
+      </c>
+      <c r="B321" t="n">
+        <v>333.4804366999306</v>
+      </c>
+      <c r="C321" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>5.372028300072998</v>
+      </c>
+      <c r="B322" t="n">
+        <v>327.949644700042</v>
+      </c>
+      <c r="C322" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>5.047161800088361</v>
+      </c>
+      <c r="B323" t="n">
+        <v>326.3190492000431</v>
+      </c>
+      <c r="C323" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>5.23057599994354</v>
+      </c>
+      <c r="B324" t="n">
+        <v>331.2054815000156</v>
+      </c>
+      <c r="C324" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>5.119328300002962</v>
+      </c>
+      <c r="B325" t="n">
+        <v>325.5265721000032</v>
+      </c>
+      <c r="C325" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>5.044044899987057</v>
+      </c>
+      <c r="B326" t="n">
+        <v>329.1950768999523</v>
+      </c>
+      <c r="C326" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>5.13185100001283</v>
+      </c>
+      <c r="B327" t="n">
+        <v>331.2391294999979</v>
+      </c>
+      <c r="C327" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>5.09618950006552</v>
+      </c>
+      <c r="B328" t="n">
+        <v>324.9359098999994</v>
+      </c>
+      <c r="C328" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>6.727665800019167</v>
+      </c>
+      <c r="B329" t="n">
+        <v>324.9960811000783</v>
+      </c>
+      <c r="C329" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>5.961436799960211</v>
+      </c>
+      <c r="B330" t="n">
+        <v>324.2043819999089</v>
+      </c>
+      <c r="C330" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>5.126176699995995</v>
+      </c>
+      <c r="B331" t="n">
+        <v>319.3535924000898</v>
+      </c>
+      <c r="C331" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>4.774477900005877</v>
+      </c>
+      <c r="B332" t="n">
+        <v>320.2021576999687</v>
+      </c>
+      <c r="C332" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>4.953415199997835</v>
+      </c>
+      <c r="B333" t="n">
+        <v>321.8685616999865</v>
+      </c>
+      <c r="C333" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>5.110050300019793</v>
+      </c>
+      <c r="B334" t="n">
+        <v>319.8847736000316</v>
+      </c>
+      <c r="C334" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>5.085720099974424</v>
+      </c>
+      <c r="B335" t="n">
+        <v>321.9703278000234</v>
+      </c>
+      <c r="C335" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>5.081012100097723</v>
+      </c>
+      <c r="B336" t="n">
+        <v>314.8727617999539</v>
+      </c>
+      <c r="C336" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>5.163418999989517</v>
+      </c>
+      <c r="B337" t="n">
+        <v>319.5351617999841</v>
+      </c>
+      <c r="C337" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>5.147519399994053</v>
+      </c>
+      <c r="B338" t="n">
+        <v>316.953235300025</v>
+      </c>
+      <c r="C338" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>4.814044600003399</v>
+      </c>
+      <c r="B339" t="n">
+        <v>311.422890799935</v>
+      </c>
+      <c r="C339" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>4.827086300007068</v>
+      </c>
+      <c r="B340" t="n">
+        <v>309.4043796999613</v>
+      </c>
+      <c r="C340" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>5.026317300042138</v>
+      </c>
+      <c r="B341" t="n">
+        <v>319.2958223000169</v>
+      </c>
+      <c r="C341" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>4.929848699946888</v>
+      </c>
+      <c r="B342" t="n">
+        <v>308.7451102000196</v>
+      </c>
+      <c r="C342" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>6.432824700023048</v>
+      </c>
+      <c r="B343" t="n">
+        <v>309.1449814999942</v>
+      </c>
+      <c r="C343" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>4.964037399971858</v>
+      </c>
+      <c r="B344" t="n">
+        <v>314.4377426999854</v>
+      </c>
+      <c r="C344" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>4.73663589998614</v>
+      </c>
+      <c r="B345" t="n">
+        <v>319.2462954999646</v>
+      </c>
+      <c r="C345" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>4.768877900089137</v>
+      </c>
+      <c r="B346" t="n">
+        <v>312.9384477999993</v>
+      </c>
+      <c r="C346" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>6.191409699968062</v>
+      </c>
+      <c r="B347" t="n">
+        <v>306.7252433999674</v>
+      </c>
+      <c r="C347" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>4.595133400056511</v>
+      </c>
+      <c r="B348" t="n">
+        <v>308.3127238000743</v>
+      </c>
+      <c r="C348" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>4.667129400069825</v>
+      </c>
+      <c r="B349" t="n">
+        <v>303.8249322000192</v>
+      </c>
+      <c r="C349" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>4.683847600012086</v>
+      </c>
+      <c r="B350" t="n">
+        <v>307.5650939999614</v>
+      </c>
+      <c r="C350" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>4.727537899976596</v>
+      </c>
+      <c r="B351" t="n">
+        <v>304.9810933000408</v>
+      </c>
+      <c r="C351" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>4.476635899976827</v>
+      </c>
+      <c r="B352" t="n">
+        <v>312.8722726999549</v>
+      </c>
+      <c r="C352" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>4.705919200088829</v>
+      </c>
+      <c r="B353" t="n">
+        <v>303.0170078000519</v>
+      </c>
+      <c r="C353" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>4.788669100031257</v>
+      </c>
+      <c r="B354" t="n">
+        <v>303.217602299992</v>
+      </c>
+      <c r="C354" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>4.693330000038259</v>
+      </c>
+      <c r="B355" t="n">
+        <v>304.7115512999007</v>
+      </c>
+      <c r="C355" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>6.714659299934283</v>
+      </c>
+      <c r="B356" t="n">
+        <v>302.3315236000344</v>
+      </c>
+      <c r="C356" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>4.646944100037217</v>
+      </c>
+      <c r="B357" t="n">
+        <v>309.2026699000271</v>
+      </c>
+      <c r="C357" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>4.644530500052497</v>
+      </c>
+      <c r="B358" t="n">
+        <v>326.3878339000512</v>
+      </c>
+      <c r="C358" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>5.08660909999162</v>
+      </c>
+      <c r="B359" t="n">
+        <v>331.057232699939</v>
+      </c>
+      <c r="C359" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>5.262730100075714</v>
+      </c>
+      <c r="B360" t="n">
+        <v>330.1980087000411</v>
+      </c>
+      <c r="C360" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>5.189262700034305</v>
+      </c>
+      <c r="B361" t="n">
+        <v>330.8205743000144</v>
+      </c>
+      <c r="C361" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>5.076106900000013</v>
+      </c>
+      <c r="B362" t="n">
+        <v>326.7866234999383</v>
+      </c>
+      <c r="C362" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>4.931435600039549</v>
+      </c>
+      <c r="B363" t="n">
+        <v>325.9490105999867</v>
+      </c>
+      <c r="C363" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>5.033750499947928</v>
+      </c>
+      <c r="B364" t="n">
+        <v>326.9833075000206</v>
+      </c>
+      <c r="C364" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>4.88866329996381</v>
+      </c>
+      <c r="B365" t="n">
+        <v>319.5403087000595</v>
+      </c>
+      <c r="C365" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>5.186700099962763</v>
+      </c>
+      <c r="B366" t="n">
+        <v>332.0442139999941</v>
+      </c>
+      <c r="C366" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>5.085831899894401</v>
+      </c>
+      <c r="B367" t="n">
+        <v>321.042139200028</v>
+      </c>
+      <c r="C367" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>6.143813899951056</v>
+      </c>
+      <c r="B368" t="n">
+        <v>326.5952631999971</v>
+      </c>
+      <c r="C368" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>6.869654400041327</v>
+      </c>
+      <c r="B369" t="n">
+        <v>324.697264400078</v>
+      </c>
+      <c r="C369" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>5.030830099945888</v>
+      </c>
+      <c r="B370" t="n">
+        <v>333.7384052000707</v>
+      </c>
+      <c r="C370" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>5.117887400090694</v>
+      </c>
+      <c r="B371" t="n">
+        <v>330.6765084000072</v>
+      </c>
+      <c r="C371" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>4.979967000079341</v>
+      </c>
+      <c r="B372" t="n">
+        <v>329.9246809000615</v>
+      </c>
+      <c r="C372" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>6.158513000002131</v>
+      </c>
+      <c r="B373" t="n">
+        <v>325.0344472000143</v>
+      </c>
+      <c r="C373" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>5.198920700000599</v>
+      </c>
+      <c r="B374" t="n">
+        <v>329.2262818999588</v>
+      </c>
+      <c r="C374" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>5.847579799941741</v>
+      </c>
+      <c r="B375" t="n">
+        <v>320.3267955000047</v>
+      </c>
+      <c r="C375" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>4.738159599946812</v>
+      </c>
+      <c r="B376" t="n">
+        <v>304.2810455000727</v>
+      </c>
+      <c r="C376" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>4.817502200021408</v>
+      </c>
+      <c r="B377" t="n">
+        <v>308.1720981999533</v>
+      </c>
+      <c r="C377" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>4.691651699948125</v>
+      </c>
+      <c r="B378" t="n">
+        <v>304.2364086000016</v>
+      </c>
+      <c r="C378" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>4.688832600018941</v>
+      </c>
+      <c r="B379" t="n">
+        <v>307.4778042000253</v>
+      </c>
+      <c r="C379" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>4.773847499978729</v>
+      </c>
+      <c r="B380" t="n">
+        <v>303.2228703000583</v>
+      </c>
+      <c r="C380" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>4.642026899964549</v>
+      </c>
+      <c r="B381" t="n">
+        <v>298.6776773999445</v>
+      </c>
+      <c r="C381" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>4.884624799946323</v>
+      </c>
+      <c r="B382" t="n">
+        <v>301.6869905000785</v>
+      </c>
+      <c r="C382" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>4.72389840008691</v>
+      </c>
+      <c r="B383" t="n">
+        <v>303.6428593000164</v>
+      </c>
+      <c r="C383" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>4.750630499911495</v>
+      </c>
+      <c r="B384" t="n">
+        <v>304.1907292000251</v>
+      </c>
+      <c r="C384" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>4.896062199957669</v>
+      </c>
+      <c r="B385" t="n">
+        <v>300.7841001000488</v>
+      </c>
+      <c r="C385" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>4.77808910002932</v>
+      </c>
+      <c r="B386" t="n">
+        <v>300.9911424999591</v>
+      </c>
+      <c r="C386" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>4.729054299998097</v>
+      </c>
+      <c r="B387" t="n">
+        <v>298.4960617999313</v>
+      </c>
+      <c r="C387" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>4.652611199999228</v>
+      </c>
+      <c r="B388" t="n">
+        <v>303.4810251999879</v>
+      </c>
+      <c r="C388" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>5.58623360004276</v>
+      </c>
+      <c r="B389" t="n">
+        <v>301.8470412000315</v>
+      </c>
+      <c r="C389" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>4.405385700054467</v>
+      </c>
+      <c r="B390" t="n">
+        <v>301.3825843000086</v>
+      </c>
+      <c r="C390" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>4.716765200020745</v>
+      </c>
+      <c r="B391" t="n">
+        <v>302.6003565000137</v>
+      </c>
+      <c r="C391" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>4.692371099954471</v>
+      </c>
+      <c r="B392" t="n">
+        <v>296.0764646999305</v>
+      </c>
+      <c r="C392" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>4.586752300034277</v>
+      </c>
+      <c r="B393" t="n">
+        <v>299.2913899999112</v>
+      </c>
+      <c r="C393" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>4.301107499981299</v>
+      </c>
+      <c r="B394" t="n">
+        <v>298.3802822999423</v>
+      </c>
+      <c r="C394" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>4.60851890000049</v>
+      </c>
+      <c r="B395" t="n">
+        <v>297.1881553999847</v>
+      </c>
+      <c r="C395" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>4.775562399998307</v>
+      </c>
+      <c r="B396" t="n">
+        <v>301.1195265999995</v>
+      </c>
+      <c r="C396" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>4.741901000030339</v>
+      </c>
+      <c r="B397" t="n">
+        <v>299.2567223999649</v>
+      </c>
+      <c r="C397" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>5.017301499960013</v>
+      </c>
+      <c r="B398" t="n">
+        <v>298.4387264999095</v>
+      </c>
+      <c r="C398" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>4.682376200100407</v>
+      </c>
+      <c r="B399" t="n">
+        <v>301.1454489000607</v>
+      </c>
+      <c r="C399" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>4.174002300016582</v>
+      </c>
+      <c r="B400" t="n">
+        <v>298.8947621000698</v>
+      </c>
+      <c r="C400" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>4.660430899937637</v>
+      </c>
+      <c r="B401" t="n">
+        <v>296.9008237000089</v>
+      </c>
+      <c r="C401" t="n">
         <v>10000</v>
       </c>
     </row>
